--- a/OKG-fileList.xlsx
+++ b/OKG-fileList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\KUMIO-Protocol-Analysis-Project-Management-WebSite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844CEF5D-D21C-4645-AB2E-1D9E47E80C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76D8E7A-2F32-4534-8CFB-EEB182F39889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{55EF4403-E1A4-49DD-96BB-25271CCC22E2}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -130,6 +130,48 @@
   </si>
   <si>
     <t>Tamam, ilk olarak alana girdim, ondan sonra Hazine Kulesi'ne gittim, Hazine Kulesi'nin içini gezdik. Oradan çıkıp Kitabeler Kulesi'ne gittik, onun içine baktık. Ne vardı? Kuyu vardı. Sonra oradan çıktık, ondan sonra diğer kuleleri gezdik, 3. Ahmet Kulesi'ni vesaire. Bazılarının içine giriş yoktu. Sonrasında Altın Kapı'nın oraya gittik, işte Altın Kapı hakkında bilgi aldık. Ondan sonra, eskiden müslüman esirlerin olduğu zindana gittik, orayı gördük. Oradan terasa çıktık. Orada Genç Osman'ın öldürüldüğü odayı gördük. Sonrasında Küçük Altın Kapı'nın olduğu alana gittik, orayı gördük. Bu şekilde.</t>
+  </si>
+  <si>
+    <t>OKG_16</t>
+  </si>
+  <si>
+    <t>OKG_17</t>
+  </si>
+  <si>
+    <t>OKG_18</t>
+  </si>
+  <si>
+    <t>OKG_19</t>
+  </si>
+  <si>
+    <t>OKG_20</t>
+  </si>
+  <si>
+    <t>OKG_21</t>
+  </si>
+  <si>
+    <t>OKG_22</t>
+  </si>
+  <si>
+    <t>Tabii önce eğitim ile başladı yani eğitim. Evet belki bir tık daha kısa sürebilirdi ama beni sıkan bir yapısı da yoktu. Haricinde kuleleri gezerek başladık. İçlerine girdik. Sanırım ilk hazine kulesine girdik. Ondan sonra Kitabe Kulesi, Kitabe Kulesi'ni ilgi çekici buldum. Özellikle o bilgi notlarını ben beğendim açıkçası. Yani hakkında bu kadar çok rivayet olan bir yerde öyle ufak bilgi notlarını verimli buldum. İçeride kalan yabancı kimselerin isimleri de geçmişti. Aklımda kaldı herhalde. Haricinde diğer kuleleri tek tek gezdik. Genç Osman'ın öldürüldüğü odaya girdik. Çekim olduğu için tüm odalara tek tek bakamadık belki ama yine verim aldım. Sadece kenarlarda merdivenler gördük. Bunlar tabii ki gezimizle alakalı değil. Kapatılmış görüyorum sadece. Oralara da çıkabileceğimiz başka bir tür mümkün olsaydı daha eğlenceli olabilirdi. Haricinde ortada bir mescit vardı. Şu an restorasyonda olduğu için çok inceleyemedik haliyle. Altınkapı'yı gördük. Küçük Altınkapı'yı da gördük oradan. Seferlerden dönüşlerde çıkışlarda oradan uğurlandığını, selamlandığını imparator ve padişahın söyleniyordu. Bu şekilde kuleleri tek tek girmekten keyif aldım ama.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Önce giriş yaptık. Sonrasında tablet size bir ağacın altından başladım. Oradan Hazine Kulesi'ne gittik diye hatırlıyorum. Orada işte tablette şeyleri gördüm böyle sandıklar vardı. Oraya 3D görselleştirmişlerdi. Sonra oradan çıktık. Biraz etrafta yürüdük. Mescidin oralara geldik sanırım. Sikkeleri toplamaya çalıştık.Sonra, Kitabe Kulesi'ne gelmiş olmamız lazım. Orada, he yazı...Oradaki kitabeleri, duvardaki kitabeleri okuduk. Sonra çıktık ve Altınkapı'nın önüne geldik. Oradan da güney, Güney Kulesi miydi sanırım adı, böyle güney güneyli bir şey sanırım. Oradan ikinci kata çıktık. Ya da üçüncü. Genç Osman'ın olduğu odayı gördük. Orada yeniçeriler vardı. Sonra şeyi, a pardon. Ondan önce onun alt katında mahkumların kaldığı hücreleri gördük. Orada mahkumların duvarlara çizdiği işte bir tane çapa vardı, bir tane de yazı. Arapça bir yazı vardı sanırım orada. Herhalde onların şeylerini anlatıyordu. Atıyorum adam denizci, o yüzden yapmış. Sonra orada işte başka duvarda delik izleri varmış. Tablet dedi ki o, dünya savaşında askerler bu tarafta talim yapıyordu o şeyi. Sonra oradan Genç Osman'a çıktık. Sonra da terasa çıktık. Terasta etrafı gördük. Sonra aşağıya indik ve Küçük Altınkapı'ya gittik. O yol aynı zamanda sanırım, o yol ve, ikinci Altınkapı sonradan daha da güçlendirmek için yapılmış o kısım. Bu şekilde aklımda kalanlar. Bunları söylüyorum. </t>
+  </si>
+  <si>
+    <t>Kapsamlı bir soruymuş. Gezide giriş noktasından başlayarak aslında bütün hisarı gezdiğimi aşağı yukarı düşünüyorum, tabi ki hani her deliğine her köşesine gidemedim hani belki belli yerleri daha detaylı gezmek isterdim açık olsaydı ancak bura yani hisar hakkında yani bu tarihi yapı hakkında belli bir fikir edinmek için kapsamlıbir rota oluşturulduğunu düşünüyorum. Gezerken işte giriş noktasından başlayıp özellikle belirlenen noktaları işte ağaç gibi, mescidin önü gibi, minare gibi dikkat çekilmesi yön bulma konusunda etkiliydi. O açıdan da benim hani mesela bu çizim yaparken işimi kolaylaştırdı açıkçası, belki hani sadece uygulama olmasaydı da sadece bilgi tabelalarından bile olsaydı o kadar etkili olmayabilirdi. Çünkü rota sonuçta belliydi hani önce belli bir rotayı takip etmek birçok şeyi aklımda tutmayı kolaylaştırdı. Gezdiğimiz noktaları anlatayım mı? Yani eğer fırsat olsaydı tabii şeye falan çıkmak isterdim Hazineler Kulesindeki şeylere, üst katlara çıkabilmek ya da Kitabeler Kulesi'ndeki daha üst katlara çıkabilmek isterdim. O deneyimi hani Güney Pilon'da yaptık gerçi. Öyle bir şey ilgimi çekebilirdi ama onun dışında hani rota etkili idi. Uygulamada kullanılan grafikler hani biraz daha fazla olabilirdi diye düşündüm hani oyunlaştırma, oyunun kendi sistemi gayet etkili olmakla beraber hani animasyonlar daha fazla olsa aslında mekanların tarihsel gelişimini kafamda canlandırmayı kolaylaştırabilirdi diye düşünüyorum. O açıdan yani her ne kadar çok kedi ve sincap çok tatlı olsa da tarihsel karakterler ya da tarihsel faktörlerin biraz daha işin içine katılmasının ve özellikle hani atıyorum, Roma dönemine dair bir animasyonun olması, onun işte Osmanlı dönemindeki bir şeyle karşılaştırılması falan mekan algısını yani bir mekanın farklı dönemlerinin algısını aktarırdı. Ama o, yani genel bir fikir belirtmek adına çok etkili ve hani beklediğimden de uzun sürdü aslında ve yani saate bakınca uzun sürmüş ama benim için aslında çok daha kısa süren bir gezi oldu, o beni şaşırttı baya hani normalde 1 saat boyunca ayakta gezeceğiz deseniz daha yorucu olacağını düşünürdüm ama işte dediğim gibi, bu rotanın oluşturulması hani birçok bilginin verilmesi, o süreci çok keyifli hale getirdi yani keyifli hale getirdiği için bence çok güzel akışkan bir rota, uygulama olmuş.</t>
+  </si>
+  <si>
+    <t>Hımmm galiba ben şu katları, kuledeki katları görmek isterdim. Yani en azından bir iki kat olarak 5 katlıymış. Onları görmeyi daha çok isterdim böyle kat kat, kat kat tecrübesini. Ondan sonra oradan.. Kendi başıma gelseydim, hep sizi gezdirdiniz ama odalara girmeye biraz korkabilirdim çünkü herhangi bir yönlendirme yok, tabela yok vesaire. Hani bir taş bir şeyin içinde geziyoruz ya, oralarda da bir yönlendirme ve o kadar derinlere gitmezdim mesela. Genç Osman'ın öldürüldüğü odaya kadar gitmeye çekinirdim açıkçası. Terasa çıkardım ama o kadar dip köşe gitmeye kendi başıma geçsem biraz ürperdim. Onun dışında karma bir yapı. Duvarlardaki taşlarda da görüyoruz. Hımmm güzel buldum bu deneyimi ilk defa gelmiştim. Restorasyon sonrası bir daha bakarız.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teşekkürler, çok keyifli bir geziydi. Kuleleri, bahçeyi yani avluyu ve Altınkapı, en son noktada Altınkapı'yı, terası gezik. Genç Osman'ın öldürüldüğü kuleyi gördük. Hem iç mekanları hem de dış mekanları  yani avlunun içini, açık mekanı gezme fırsatımız oldu. Keyifliyfi, üst katlara çıkmak biraz bu kulenin içindeki karanlık mahzenvari yerlerden geçmek ve aralardaki pencerelerden, boşluklardan manzaraya bakmak ilginçti. O zamandaki hani hem o taş dokusu hem o şu anda baya artık şey yapmış hani o zamanın izlerini taşıyan douyu görmek keyifliydi. Bu kullandığımız araç da onu hem kolaylaştırdı hem de biraz daha hem de gelişmeye de müsait. O dönemi yaşamak ve anlamak adına da bir fırsat sundu diye düşünüyorum. </t>
+  </si>
+  <si>
+    <t>Girişten itibaren tamamınen bütün kuleleri tek tek gezdik. Kuleler dışında eskiden oralarda kalan insanları, bundan başka kullanıldıklarına dair bütün detaylarıyla öğrendik ve gördük. Eski yaşamış insanların burada gezip görmesi ve benim de buralarda gezmem aşırı derecede ilgi çekici bir şey. Onun dışında yapıların dönemlerinin birbirinden farklı olmasına rağmen hiçbir farklılık göremedim. Roma döneminden Osmanlı döneminden iki farklı parça var burada ama sanki tamamen tek bir parçaymış gibi hissettim.</t>
+  </si>
+  <si>
+    <t>Zor bir soru. 5. Yüzyıldan itibaren üstüne eklene eklene her imparatorluk kendi tarihini, kendi kültürünü koyarak bugüne kadar gelmiş bir eser aslında. Yedi tane de Yedikule'de görebiliyorsunuz. Bir tanesi hariç ve çoğunun içine girip aslında içinde bizim daha önce tarih kitaplarında okuduğumuz şeyleri görebilme şansınız oluyor. Mesela Genç Osman, Genç Osman'ın hapsedildiği zindanı görebiliyorsunuz. O açıdan güzel. Hem gezip hem görebilmek başka bir deneyim. Mesela terasa çıkmak, terasa çıktıktan sonra İstanbul'un aslında o zamanki sınırını görmek. Yani o zamanki işte nasıl korunduğunu, nasıl iki tane sur eklendiğini görmek güzel oluyor.</t>
   </si>
 </sst>
 </file>
@@ -487,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E3A8BE8-7532-49E9-9C69-99A017372AC8}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+      <selection activeCell="G31" activeCellId="1" sqref="B26 G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -623,6 +665,62 @@
         <v>31</v>
       </c>
     </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
